--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Clec14a</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.2706537325334</v>
+        <v>34.349525</v>
       </c>
       <c r="H2">
-        <v>26.2706537325334</v>
+        <v>103.048575</v>
       </c>
       <c r="I2">
-        <v>0.9034620685144971</v>
+        <v>0.9193849879779717</v>
       </c>
       <c r="J2">
-        <v>0.9034620685144971</v>
+        <v>0.9193849879779719</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.8698622472244</v>
+        <v>10.77804666666667</v>
       </c>
       <c r="N2">
-        <v>7.8698622472244</v>
+        <v>32.33414</v>
       </c>
       <c r="O2">
-        <v>0.9012471345069822</v>
+        <v>0.9038510333373224</v>
       </c>
       <c r="P2">
-        <v>0.9012471345069822</v>
+        <v>0.9038510333373223</v>
       </c>
       <c r="Q2">
-        <v>206.7464260195694</v>
+        <v>370.2207834278333</v>
       </c>
       <c r="R2">
-        <v>206.7464260195694</v>
+        <v>3331.9870508505</v>
       </c>
       <c r="S2">
-        <v>0.8142426003844413</v>
+        <v>0.8309870714187115</v>
       </c>
       <c r="T2">
-        <v>0.8142426003844413</v>
+        <v>0.8309870714187115</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.2706537325334</v>
+        <v>34.349525</v>
       </c>
       <c r="H3">
-        <v>26.2706537325334</v>
+        <v>103.048575</v>
       </c>
       <c r="I3">
-        <v>0.9034620685144971</v>
+        <v>0.9193849879779717</v>
       </c>
       <c r="J3">
-        <v>0.9034620685144971</v>
+        <v>0.9193849879779719</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.393671678764585</v>
+        <v>0.3997126666666667</v>
       </c>
       <c r="N3">
-        <v>0.393671678764585</v>
+        <v>1.199138</v>
       </c>
       <c r="O3">
-        <v>0.04508280593453427</v>
+        <v>0.03352005404857065</v>
       </c>
       <c r="P3">
-        <v>0.04508280593453427</v>
+        <v>0.03352005404857065</v>
       </c>
       <c r="Q3">
-        <v>10.34201235712953</v>
+        <v>13.72994023648333</v>
       </c>
       <c r="R3">
-        <v>10.34201235712953</v>
+        <v>123.56946212835</v>
       </c>
       <c r="S3">
-        <v>0.04073060510405198</v>
+        <v>0.03081783448846609</v>
       </c>
       <c r="T3">
-        <v>0.04073060510405198</v>
+        <v>0.03081783448846609</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +655,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.2706537325334</v>
+        <v>34.349525</v>
       </c>
       <c r="H4">
-        <v>26.2706537325334</v>
+        <v>103.048575</v>
       </c>
       <c r="I4">
-        <v>0.9034620685144971</v>
+        <v>0.9193849879779717</v>
       </c>
       <c r="J4">
-        <v>0.9034620685144971</v>
+        <v>0.9193849879779719</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.468657218817845</v>
+        <v>0.022102</v>
       </c>
       <c r="N4">
-        <v>0.468657218817845</v>
+        <v>0.066306</v>
       </c>
       <c r="O4">
-        <v>0.05367005955848352</v>
+        <v>0.001853482004360237</v>
       </c>
       <c r="P4">
-        <v>0.05367005955848352</v>
+        <v>0.001853482004360237</v>
       </c>
       <c r="Q4">
-        <v>12.31193151481574</v>
+        <v>0.75919320155</v>
       </c>
       <c r="R4">
-        <v>12.31193151481574</v>
+        <v>6.832738813950001</v>
       </c>
       <c r="S4">
-        <v>0.04848886302600378</v>
+        <v>0.001704063530296123</v>
       </c>
       <c r="T4">
-        <v>0.04848886302600378</v>
+        <v>0.001704063530296123</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,60 +717,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.08891085749205</v>
+        <v>34.349525</v>
       </c>
       <c r="H5">
-        <v>1.08891085749205</v>
+        <v>103.048575</v>
       </c>
       <c r="I5">
-        <v>0.03744823656669586</v>
+        <v>0.9193849879779717</v>
       </c>
       <c r="J5">
-        <v>0.03744823656669586</v>
+        <v>0.9193849879779719</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>7.8698622472244</v>
+        <v>0.02070766666666667</v>
       </c>
       <c r="N5">
-        <v>7.8698622472244</v>
+        <v>0.062123</v>
       </c>
       <c r="O5">
-        <v>0.9012471345069822</v>
+        <v>0.001736552688397294</v>
       </c>
       <c r="P5">
-        <v>0.9012471345069822</v>
+        <v>0.001736552688397294</v>
       </c>
       <c r="Q5">
-        <v>8.569578447969434</v>
+        <v>0.7112985138583334</v>
       </c>
       <c r="R5">
-        <v>8.569578447969434</v>
+        <v>6.401686624725</v>
       </c>
       <c r="S5">
-        <v>0.03375011589807424</v>
+        <v>0.001596560472545261</v>
       </c>
       <c r="T5">
-        <v>0.03375011589807424</v>
+        <v>0.001596560472545261</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,55 +779,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.08891085749205</v>
+        <v>34.349525</v>
       </c>
       <c r="H6">
-        <v>1.08891085749205</v>
+        <v>103.048575</v>
       </c>
       <c r="I6">
-        <v>0.03744823656669586</v>
+        <v>0.9193849879779717</v>
       </c>
       <c r="J6">
-        <v>0.03744823656669586</v>
+        <v>0.9193849879779719</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.393671678764585</v>
+        <v>0.7040139999999999</v>
       </c>
       <c r="N6">
-        <v>0.393671678764585</v>
+        <v>2.112042</v>
       </c>
       <c r="O6">
-        <v>0.04508280593453427</v>
+        <v>0.05903887792134953</v>
       </c>
       <c r="P6">
-        <v>0.04508280593453427</v>
+        <v>0.05903887792134953</v>
       </c>
       <c r="Q6">
-        <v>0.4286733652938791</v>
+        <v>24.18254649335</v>
       </c>
       <c r="R6">
-        <v>0.4286733652938791</v>
+        <v>217.64291844015</v>
       </c>
       <c r="S6">
-        <v>0.001688271581726879</v>
+        <v>0.05427945806795288</v>
       </c>
       <c r="T6">
-        <v>0.001688271581726879</v>
+        <v>0.05427945806795289</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +841,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.08891085749205</v>
+        <v>1.096366</v>
       </c>
       <c r="H7">
-        <v>1.08891085749205</v>
+        <v>3.289098</v>
       </c>
       <c r="I7">
-        <v>0.03744823656669586</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="J7">
-        <v>0.03744823656669586</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.468657218817845</v>
+        <v>10.77804666666667</v>
       </c>
       <c r="N7">
-        <v>0.468657218817845</v>
+        <v>32.33414</v>
       </c>
       <c r="O7">
-        <v>0.05367005955848352</v>
+        <v>0.9038510333373224</v>
       </c>
       <c r="P7">
-        <v>0.05367005955848352</v>
+        <v>0.9038510333373223</v>
       </c>
       <c r="Q7">
-        <v>0.5103259340127789</v>
+        <v>11.81668391174667</v>
       </c>
       <c r="R7">
-        <v>0.5103259340127789</v>
+        <v>106.35015520572</v>
       </c>
       <c r="S7">
-        <v>0.002009849086894747</v>
+        <v>0.02652339359985464</v>
       </c>
       <c r="T7">
-        <v>0.002009849086894747</v>
+        <v>0.02652339359985464</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +903,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.85503845690729</v>
+        <v>1.096366</v>
       </c>
       <c r="H8">
-        <v>0.85503845690729</v>
+        <v>3.289098</v>
       </c>
       <c r="I8">
-        <v>0.02940523752479945</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="J8">
-        <v>0.02940523752479945</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.8698622472244</v>
+        <v>0.3997126666666667</v>
       </c>
       <c r="N8">
-        <v>7.8698622472244</v>
+        <v>1.199138</v>
       </c>
       <c r="O8">
-        <v>0.9012471345069822</v>
+        <v>0.03352005404857065</v>
       </c>
       <c r="P8">
-        <v>0.9012471345069822</v>
+        <v>0.03352005404857065</v>
       </c>
       <c r="Q8">
-        <v>6.729034871939689</v>
+        <v>0.4382313775026667</v>
       </c>
       <c r="R8">
-        <v>6.729034871939689</v>
+        <v>3.944082397524</v>
       </c>
       <c r="S8">
-        <v>0.02650138605872269</v>
+        <v>0.0009836417221717509</v>
       </c>
       <c r="T8">
-        <v>0.02650138605872269</v>
+        <v>0.0009836417221717509</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,184 +965,184 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.85503845690729</v>
+        <v>1.096366</v>
       </c>
       <c r="H9">
-        <v>0.85503845690729</v>
+        <v>3.289098</v>
       </c>
       <c r="I9">
-        <v>0.02940523752479945</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="J9">
-        <v>0.02940523752479945</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.393671678764585</v>
+        <v>0.022102</v>
       </c>
       <c r="N9">
-        <v>0.393671678764585</v>
+        <v>0.066306</v>
       </c>
       <c r="O9">
-        <v>0.04508280593453427</v>
+        <v>0.001853482004360237</v>
       </c>
       <c r="P9">
-        <v>0.04508280593453427</v>
+        <v>0.001853482004360237</v>
       </c>
       <c r="Q9">
-        <v>0.3366044247389731</v>
+        <v>0.024231881332</v>
       </c>
       <c r="R9">
-        <v>0.3366044247389731</v>
+        <v>0.218086931988</v>
       </c>
       <c r="S9">
-        <v>0.001325670616789419</v>
+        <v>5.43901936477037E-05</v>
       </c>
       <c r="T9">
-        <v>0.001325670616789419</v>
+        <v>5.43901936477037E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.85503845690729</v>
+        <v>1.096366</v>
       </c>
       <c r="H10">
-        <v>0.85503845690729</v>
+        <v>3.289098</v>
       </c>
       <c r="I10">
-        <v>0.02940523752479945</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="J10">
-        <v>0.02940523752479945</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.468657218817845</v>
+        <v>0.02070766666666667</v>
       </c>
       <c r="N10">
-        <v>0.468657218817845</v>
+        <v>0.062123</v>
       </c>
       <c r="O10">
-        <v>0.05367005955848352</v>
+        <v>0.001736552688397294</v>
       </c>
       <c r="P10">
-        <v>0.05367005955848352</v>
+        <v>0.001736552688397294</v>
       </c>
       <c r="Q10">
-        <v>0.4007199451964723</v>
+        <v>0.02270318167266667</v>
       </c>
       <c r="R10">
-        <v>0.4007199451964723</v>
+        <v>0.204328635054</v>
       </c>
       <c r="S10">
-        <v>0.001578180849287341</v>
+        <v>5.095891774464297E-05</v>
       </c>
       <c r="T10">
-        <v>0.001578180849287341</v>
+        <v>5.095891774464298E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.863157545416751</v>
+        <v>1.096366</v>
       </c>
       <c r="H11">
-        <v>0.863157545416751</v>
+        <v>3.289098</v>
       </c>
       <c r="I11">
-        <v>0.02968445739400758</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="J11">
-        <v>0.02968445739400758</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.8698622472244</v>
+        <v>0.7040139999999999</v>
       </c>
       <c r="N11">
-        <v>7.8698622472244</v>
+        <v>2.112042</v>
       </c>
       <c r="O11">
-        <v>0.9012471345069822</v>
+        <v>0.05903887792134953</v>
       </c>
       <c r="P11">
-        <v>0.9012471345069822</v>
+        <v>0.05903887792134953</v>
       </c>
       <c r="Q11">
-        <v>6.79293098008217</v>
+        <v>0.7718570131239999</v>
       </c>
       <c r="R11">
-        <v>6.79293098008217</v>
+        <v>6.946713118116</v>
       </c>
       <c r="S11">
-        <v>0.02675303216574393</v>
+        <v>0.001732488362623042</v>
       </c>
       <c r="T11">
-        <v>0.02675303216574393</v>
+        <v>0.001732488362623042</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,117 +1151,613 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.863157545416751</v>
+        <v>0.9739683333333332</v>
       </c>
       <c r="H12">
-        <v>0.863157545416751</v>
+        <v>2.921905</v>
       </c>
       <c r="I12">
-        <v>0.02968445739400758</v>
+        <v>0.02606882815504994</v>
       </c>
       <c r="J12">
-        <v>0.02968445739400758</v>
+        <v>0.02606882815504994</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.393671678764585</v>
+        <v>10.77804666666667</v>
       </c>
       <c r="N12">
-        <v>0.393671678764585</v>
+        <v>32.33414</v>
       </c>
       <c r="O12">
-        <v>0.04508280593453427</v>
+        <v>0.9038510333373224</v>
       </c>
       <c r="P12">
-        <v>0.04508280593453427</v>
+        <v>0.9038510333373223</v>
       </c>
       <c r="Q12">
-        <v>0.3398006799425309</v>
+        <v>10.49747614852222</v>
       </c>
       <c r="R12">
-        <v>0.3398006799425309</v>
+        <v>94.47728533669999</v>
       </c>
       <c r="S12">
-        <v>0.001338258631965995</v>
+        <v>0.02356233726583497</v>
       </c>
       <c r="T12">
-        <v>0.001338258631965995</v>
+        <v>0.02356233726583497</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9739683333333332</v>
+      </c>
+      <c r="H13">
+        <v>2.921905</v>
+      </c>
+      <c r="I13">
+        <v>0.02606882815504994</v>
+      </c>
+      <c r="J13">
+        <v>0.02606882815504994</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.3997126666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.199138</v>
+      </c>
+      <c r="O13">
+        <v>0.03352005404857065</v>
+      </c>
+      <c r="P13">
+        <v>0.03352005404857065</v>
+      </c>
+      <c r="Q13">
+        <v>0.3893074797655555</v>
+      </c>
+      <c r="R13">
+        <v>3.50376731789</v>
+      </c>
+      <c r="S13">
+        <v>0.0008738285287401741</v>
+      </c>
+      <c r="T13">
+        <v>0.0008738285287401743</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.9739683333333332</v>
+      </c>
+      <c r="H14">
+        <v>2.921905</v>
+      </c>
+      <c r="I14">
+        <v>0.02606882815504994</v>
+      </c>
+      <c r="J14">
+        <v>0.02606882815504994</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.022102</v>
+      </c>
+      <c r="N14">
+        <v>0.066306</v>
+      </c>
+      <c r="O14">
+        <v>0.001853482004360237</v>
+      </c>
+      <c r="P14">
+        <v>0.001853482004360237</v>
+      </c>
+      <c r="Q14">
+        <v>0.02152664810333333</v>
+      </c>
+      <c r="R14">
+        <v>0.19373983293</v>
+      </c>
+      <c r="S14">
+        <v>4.831810386014452E-05</v>
+      </c>
+      <c r="T14">
+        <v>4.831810386014453E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.9739683333333332</v>
+      </c>
+      <c r="H15">
+        <v>2.921905</v>
+      </c>
+      <c r="I15">
+        <v>0.02606882815504994</v>
+      </c>
+      <c r="J15">
+        <v>0.02606882815504994</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.02070766666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.062123</v>
+      </c>
+      <c r="O15">
+        <v>0.001736552688397294</v>
+      </c>
+      <c r="P15">
+        <v>0.001736552688397294</v>
+      </c>
+      <c r="Q15">
+        <v>0.02016861159055556</v>
+      </c>
+      <c r="R15">
+        <v>0.181517504315</v>
+      </c>
+      <c r="S15">
+        <v>4.526989361601904E-05</v>
+      </c>
+      <c r="T15">
+        <v>4.526989361601905E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.9739683333333332</v>
+      </c>
+      <c r="H16">
+        <v>2.921905</v>
+      </c>
+      <c r="I16">
+        <v>0.02606882815504994</v>
+      </c>
+      <c r="J16">
+        <v>0.02606882815504994</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.7040139999999999</v>
+      </c>
+      <c r="N16">
+        <v>2.112042</v>
+      </c>
+      <c r="O16">
+        <v>0.05903887792134953</v>
+      </c>
+      <c r="P16">
+        <v>0.05903887792134953</v>
+      </c>
+      <c r="Q16">
+        <v>0.6856873422233332</v>
+      </c>
+      <c r="R16">
+        <v>6.171186080009999</v>
+      </c>
+      <c r="S16">
+        <v>0.001539074362998633</v>
+      </c>
+      <c r="T16">
+        <v>0.001539074362998633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.863157545416751</v>
-      </c>
-      <c r="H13">
-        <v>0.863157545416751</v>
-      </c>
-      <c r="I13">
-        <v>0.02968445739400758</v>
-      </c>
-      <c r="J13">
-        <v>0.02968445739400758</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.468657218817845</v>
-      </c>
-      <c r="N13">
-        <v>0.468657218817845</v>
-      </c>
-      <c r="O13">
-        <v>0.05367005955848352</v>
-      </c>
-      <c r="P13">
-        <v>0.05367005955848352</v>
-      </c>
-      <c r="Q13">
-        <v>0.4045250146366523</v>
-      </c>
-      <c r="R13">
-        <v>0.4045250146366523</v>
-      </c>
-      <c r="S13">
-        <v>0.001593166596297653</v>
-      </c>
-      <c r="T13">
-        <v>0.001593166596297653</v>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9415566666666667</v>
+      </c>
+      <c r="H17">
+        <v>2.82467</v>
+      </c>
+      <c r="I17">
+        <v>0.02520131107093657</v>
+      </c>
+      <c r="J17">
+        <v>0.02520131107093657</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.77804666666667</v>
+      </c>
+      <c r="N17">
+        <v>32.33414</v>
+      </c>
+      <c r="O17">
+        <v>0.9038510333373224</v>
+      </c>
+      <c r="P17">
+        <v>0.9038510333373223</v>
+      </c>
+      <c r="Q17">
+        <v>10.14814169264445</v>
+      </c>
+      <c r="R17">
+        <v>91.33327523379999</v>
+      </c>
+      <c r="S17">
+        <v>0.02277823105292132</v>
+      </c>
+      <c r="T17">
+        <v>0.02277823105292132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.9415566666666667</v>
+      </c>
+      <c r="H18">
+        <v>2.82467</v>
+      </c>
+      <c r="I18">
+        <v>0.02520131107093657</v>
+      </c>
+      <c r="J18">
+        <v>0.02520131107093657</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.3997126666666667</v>
+      </c>
+      <c r="N18">
+        <v>1.199138</v>
+      </c>
+      <c r="O18">
+        <v>0.03352005404857065</v>
+      </c>
+      <c r="P18">
+        <v>0.03352005404857065</v>
+      </c>
+      <c r="Q18">
+        <v>0.3763521260511111</v>
+      </c>
+      <c r="R18">
+        <v>3.387169134460001</v>
+      </c>
+      <c r="S18">
+        <v>0.0008447493091926357</v>
+      </c>
+      <c r="T18">
+        <v>0.0008447493091926358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.9415566666666667</v>
+      </c>
+      <c r="H19">
+        <v>2.82467</v>
+      </c>
+      <c r="I19">
+        <v>0.02520131107093657</v>
+      </c>
+      <c r="J19">
+        <v>0.02520131107093657</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.022102</v>
+      </c>
+      <c r="N19">
+        <v>0.066306</v>
+      </c>
+      <c r="O19">
+        <v>0.001853482004360237</v>
+      </c>
+      <c r="P19">
+        <v>0.001853482004360237</v>
+      </c>
+      <c r="Q19">
+        <v>0.02081028544666667</v>
+      </c>
+      <c r="R19">
+        <v>0.18729256902</v>
+      </c>
+      <c r="S19">
+        <v>4.671017655626533E-05</v>
+      </c>
+      <c r="T19">
+        <v>4.671017655626534E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9415566666666667</v>
+      </c>
+      <c r="H20">
+        <v>2.82467</v>
+      </c>
+      <c r="I20">
+        <v>0.02520131107093657</v>
+      </c>
+      <c r="J20">
+        <v>0.02520131107093657</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.02070766666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.062123</v>
+      </c>
+      <c r="O20">
+        <v>0.001736552688397294</v>
+      </c>
+      <c r="P20">
+        <v>0.001736552688397294</v>
+      </c>
+      <c r="Q20">
+        <v>0.01949744160111111</v>
+      </c>
+      <c r="R20">
+        <v>0.17547697441</v>
+      </c>
+      <c r="S20">
+        <v>4.376340449137139E-05</v>
+      </c>
+      <c r="T20">
+        <v>4.37634044913714E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9415566666666667</v>
+      </c>
+      <c r="H21">
+        <v>2.82467</v>
+      </c>
+      <c r="I21">
+        <v>0.02520131107093657</v>
+      </c>
+      <c r="J21">
+        <v>0.02520131107093657</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.7040139999999999</v>
+      </c>
+      <c r="N21">
+        <v>2.112042</v>
+      </c>
+      <c r="O21">
+        <v>0.05903887792134953</v>
+      </c>
+      <c r="P21">
+        <v>0.05903887792134953</v>
+      </c>
+      <c r="Q21">
+        <v>0.6628690751266666</v>
+      </c>
+      <c r="R21">
+        <v>5.96582167614</v>
+      </c>
+      <c r="S21">
+        <v>0.001487857127774979</v>
+      </c>
+      <c r="T21">
+        <v>0.001487857127774979</v>
       </c>
     </row>
   </sheetData>
